--- a/outputs-r202/g__Sodaliphilus.xlsx
+++ b/outputs-r202/g__Sodaliphilus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA34"/>
+  <dimension ref="A1:BB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,6 +700,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -865,6 +870,11 @@
           <t>s__Sodaliphilus sp900316835</t>
         </is>
       </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900316835</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1030,6 +1040,11 @@
           <t>s__Sodaliphilus sp900318335</t>
         </is>
       </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318335</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1195,6 +1210,11 @@
           <t>s__Sodaliphilus sp900317325</t>
         </is>
       </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900317325</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1360,6 +1380,11 @@
           <t>s__Sodaliphilus sp900317835</t>
         </is>
       </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900317835</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1525,6 +1550,11 @@
           <t>s__Sodaliphilus sp900318065</t>
         </is>
       </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318065</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1690,6 +1720,11 @@
           <t>s__Sodaliphilus sp900318205</t>
         </is>
       </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318205</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1855,6 +1890,11 @@
           <t>s__Sodaliphilus sp900318345</t>
         </is>
       </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318345</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2020,6 +2060,11 @@
           <t>s__Sodaliphilus sp900318255</t>
         </is>
       </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318255</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2185,6 +2230,11 @@
           <t>s__Sodaliphilus sp900318335</t>
         </is>
       </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318335</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2350,6 +2400,11 @@
           <t>s__Sodaliphilus sp900316835</t>
         </is>
       </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900316835</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2515,6 +2570,11 @@
           <t>s__Sodaliphilus sp900318535</t>
         </is>
       </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318535</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2680,6 +2740,11 @@
           <t>s__Sodaliphilus sp900318645</t>
         </is>
       </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318645</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2845,6 +2910,11 @@
           <t>s__Sodaliphilus sp900318865</t>
         </is>
       </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318865(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3010,6 +3080,11 @@
           <t>s__Sodaliphilus sp900320245</t>
         </is>
       </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900320245</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3175,6 +3250,11 @@
           <t>s__Sodaliphilus sp900318065</t>
         </is>
       </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318065</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3340,6 +3420,11 @@
           <t>s__Sodaliphilus sp900320055</t>
         </is>
       </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900320055</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3505,6 +3590,11 @@
           <t>s__Sodaliphilus sp900318065</t>
         </is>
       </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318065</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3670,6 +3760,11 @@
           <t>s__Sodaliphilus sp900316835</t>
         </is>
       </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900316835</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3835,6 +3930,11 @@
           <t>s__Sodaliphilus sp900318065</t>
         </is>
       </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318065</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4000,6 +4100,11 @@
           <t>s__Sodaliphilus sp900319525</t>
         </is>
       </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900319525</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4165,6 +4270,11 @@
           <t>s__Sodaliphilus sp900318535</t>
         </is>
       </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318535</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4330,6 +4440,11 @@
           <t>s__Sodaliphilus sp900318535</t>
         </is>
       </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318535</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4495,6 +4610,11 @@
           <t>s__Sodaliphilus sp900318065</t>
         </is>
       </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318065</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4660,6 +4780,11 @@
           <t>s__Sodaliphilus sp900318335</t>
         </is>
       </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318335</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -4825,6 +4950,11 @@
           <t>s__Sodaliphilus sp900320055</t>
         </is>
       </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900320055</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -4990,6 +5120,11 @@
           <t>s__Sodaliphilus sp900318335</t>
         </is>
       </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318335</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5155,6 +5290,11 @@
           <t>s__Sodaliphilus sp900318535</t>
         </is>
       </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318535</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5320,6 +5460,11 @@
           <t>s__Sodaliphilus sp900318065</t>
         </is>
       </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318065</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5485,6 +5630,11 @@
           <t>s__Sodaliphilus sp900320245</t>
         </is>
       </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900320245</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -5650,6 +5800,11 @@
           <t>s__Sodaliphilus sp900318335</t>
         </is>
       </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318335</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -5815,6 +5970,11 @@
           <t>s__Sodaliphilus sp900322135</t>
         </is>
       </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900322135</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -5980,6 +6140,11 @@
           <t>s__Sodaliphilus sp900318205</t>
         </is>
       </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus sp900318205</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6141,6 +6306,11 @@
         <v>0.8859125008795905</v>
       </c>
       <c r="BA34" t="inlineStr">
+        <is>
+          <t>s__Sodaliphilus pleomorphus</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr">
         <is>
           <t>s__Sodaliphilus pleomorphus</t>
         </is>
